--- a/comprehensive_forecast aswan.xlsx
+++ b/comprehensive_forecast aswan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DON 2\final project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Data Analysis\Microsoft\New Materia\Final Project DEPI\DATA\Data Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583212B3-C716-470F-A4A0-E99C84C5697F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B5A499-2BE6-497D-81D8-4F315600B4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,16 +442,17 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45658</v>
       </c>
@@ -524,7 +525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45689</v>
       </c>
@@ -562,7 +563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45717</v>
       </c>
@@ -600,7 +601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45748</v>
       </c>
@@ -638,7 +639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45778</v>
       </c>
@@ -676,7 +677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45809</v>
       </c>
@@ -714,7 +715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45839</v>
       </c>
@@ -752,7 +753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45870</v>
       </c>
@@ -790,7 +791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45901</v>
       </c>
@@ -828,7 +829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45931</v>
       </c>
@@ -866,7 +867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45962</v>
       </c>
@@ -904,7 +905,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45992</v>
       </c>
